--- a/biology/Biochimie/Protéine_porteuse_d'acyle/Protéine_porteuse_d'acyle.xlsx
+++ b/biology/Biochimie/Protéine_porteuse_d'acyle/Protéine_porteuse_d'acyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_porteuse_d%27acyle</t>
+          <t>Protéine_porteuse_d'acyle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une protéine porteuse d'acyle, généralement désignée par le terme anglais acyl carrier protein (ACP), est une protéine déterminante dans la biosynthèse des acides gras et des polycétides qui possède un résidu de phosphopantéthéine capable d'établir une liaison thioester avec un groupe acyle R–CO– susceptible d'être allongé par des condensations de Claisen.
 Il s'agit d'un ensemble de protéines très largement distribuées dans les organismes vivants et structurellement très proches les unes des autres, de charge électrique négative, constituées d'hélices alpha rassemblées en faisceau, et dont les séquences d'acides aminés sont remarquablement conservées d'une espèce à une autre. Leur structure et leur mode de fonctionnement s'apparentent à ceux des peptidyl carrier proteins (PCP) des synthases de peptides non ribosomiques.
